--- a/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2200ECB-8A51-4624-A72D-79FD457648F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F13514-057D-447A-AB67-39C80972614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فخوز-فولاد  خوزستان</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-04-30</t>
-  </si>
-  <si>
-    <t>1399-10-15 (2)</t>
-  </si>
-  <si>
-    <t>1399-10-30</t>
-  </si>
-  <si>
-    <t>1401-04-16 (10)</t>
-  </si>
-  <si>
-    <t>1400-05-11 (2)</t>
-  </si>
-  <si>
-    <t>1400-10-07 (3)</t>
-  </si>
-  <si>
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-10-29 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-30 (2)</t>
+    <t>1401-10-14 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +706,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,55 +843,35 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>6588113</v>
+        <v>23257699</v>
       </c>
       <c r="E12" s="15">
-        <v>30326498</v>
+        <v>11515059</v>
       </c>
       <c r="F12" s="15">
-        <v>14471806</v>
+        <v>10898467</v>
       </c>
       <c r="G12" s="15">
-        <v>31294267</v>
+        <v>15145657</v>
       </c>
       <c r="H12" s="15">
-        <v>33630853</v>
-      </c>
-      <c r="I12" s="15">
-        <v>27739262</v>
-      </c>
-      <c r="J12" s="15">
-        <v>23257699</v>
-      </c>
-      <c r="K12" s="15">
-        <v>11515059</v>
-      </c>
-      <c r="L12" s="15">
-        <v>10898467</v>
-      </c>
-      <c r="M12" s="15">
-        <v>15145657</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>8456471</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>2690000</v>
+        <v>3657884</v>
       </c>
       <c r="E13" s="11">
         <v>2690000</v>
@@ -1002,138 +880,78 @@
         <v>2690000</v>
       </c>
       <c r="G13" s="11">
-        <v>3657884</v>
+        <v>2690000</v>
       </c>
       <c r="H13" s="11">
-        <v>3657884</v>
-      </c>
-      <c r="I13" s="11">
-        <v>3657884</v>
-      </c>
-      <c r="J13" s="11">
-        <v>3657884</v>
-      </c>
-      <c r="K13" s="11">
         <v>2690000</v>
       </c>
-      <c r="L13" s="11">
-        <v>2690000</v>
-      </c>
-      <c r="M13" s="11">
-        <v>2690000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>35726247</v>
+        <v>63490355</v>
       </c>
       <c r="E14" s="15">
-        <v>29536090</v>
+        <v>113204008</v>
       </c>
       <c r="F14" s="15">
-        <v>57021401</v>
+        <v>123268448</v>
       </c>
       <c r="G14" s="15">
-        <v>59160218</v>
+        <v>135731049</v>
       </c>
       <c r="H14" s="15">
-        <v>72047051</v>
-      </c>
-      <c r="I14" s="15">
-        <v>67650490</v>
-      </c>
-      <c r="J14" s="15">
-        <v>63490355</v>
-      </c>
-      <c r="K14" s="15">
-        <v>118261968</v>
-      </c>
-      <c r="L14" s="15">
-        <v>123268448</v>
-      </c>
-      <c r="M14" s="15">
-        <v>137319279</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>117205624</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>55382980</v>
+        <v>150717414</v>
       </c>
       <c r="E15" s="11">
-        <v>55973358</v>
+        <v>134501506</v>
       </c>
       <c r="F15" s="11">
-        <v>59226873</v>
+        <v>159933854</v>
       </c>
       <c r="G15" s="11">
-        <v>79340060</v>
+        <v>186844355</v>
       </c>
       <c r="H15" s="11">
-        <v>102424156</v>
-      </c>
-      <c r="I15" s="11">
-        <v>130134989</v>
-      </c>
-      <c r="J15" s="11">
-        <v>150717414</v>
-      </c>
-      <c r="K15" s="11">
-        <v>134501506</v>
-      </c>
-      <c r="L15" s="11">
-        <v>159933854</v>
-      </c>
-      <c r="M15" s="11">
-        <v>170184345</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>156871049</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>4529447</v>
+        <v>7532709</v>
       </c>
       <c r="E16" s="15">
-        <v>2475601</v>
+        <v>9180700</v>
       </c>
       <c r="F16" s="15">
-        <v>2093170</v>
+        <v>11971359</v>
       </c>
       <c r="G16" s="15">
-        <v>3405080</v>
+        <v>9453883</v>
       </c>
       <c r="H16" s="15">
-        <v>4426407</v>
-      </c>
-      <c r="I16" s="15">
-        <v>3732475</v>
-      </c>
-      <c r="J16" s="15">
-        <v>7532709</v>
-      </c>
-      <c r="K16" s="15">
-        <v>9180700</v>
-      </c>
-      <c r="L16" s="15">
-        <v>11971359</v>
-      </c>
-      <c r="M16" s="15">
-        <v>10953883</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>44364815</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1151,133 +969,73 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>104916787</v>
+        <v>248656061</v>
       </c>
       <c r="E18" s="17">
-        <v>121001547</v>
+        <v>271091273</v>
       </c>
       <c r="F18" s="17">
-        <v>135503250</v>
+        <v>308762128</v>
       </c>
       <c r="G18" s="17">
-        <v>176857509</v>
+        <v>349864944</v>
       </c>
       <c r="H18" s="17">
-        <v>216186351</v>
-      </c>
-      <c r="I18" s="17">
-        <v>232915100</v>
-      </c>
-      <c r="J18" s="17">
-        <v>248656061</v>
-      </c>
-      <c r="K18" s="17">
-        <v>276149233</v>
-      </c>
-      <c r="L18" s="17">
-        <v>308762128</v>
-      </c>
-      <c r="M18" s="17">
-        <v>336293164</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>329587959</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>10018584</v>
+        <v>22165623</v>
       </c>
       <c r="E19" s="11">
-        <v>10775928</v>
+        <v>24830285</v>
       </c>
       <c r="F19" s="11">
-        <v>11393782</v>
+        <v>29470643</v>
       </c>
       <c r="G19" s="11">
-        <v>14303610</v>
+        <v>29443174</v>
       </c>
       <c r="H19" s="11">
-        <v>16228472</v>
-      </c>
-      <c r="I19" s="11">
-        <v>19427908</v>
-      </c>
-      <c r="J19" s="11">
-        <v>22165623</v>
-      </c>
-      <c r="K19" s="11">
-        <v>24830285</v>
-      </c>
-      <c r="L19" s="11">
-        <v>29470643</v>
-      </c>
-      <c r="M19" s="11">
-        <v>32839715</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35990473</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>10275727</v>
+        <v>10285091</v>
       </c>
       <c r="E20" s="15">
-        <v>10276398</v>
+        <v>12659289</v>
       </c>
       <c r="F20" s="15">
-        <v>10335307</v>
+        <v>12658289</v>
       </c>
       <c r="G20" s="15">
-        <v>10285091</v>
+        <v>19311164</v>
       </c>
       <c r="H20" s="15">
-        <v>10285091</v>
-      </c>
-      <c r="I20" s="15">
-        <v>10285091</v>
-      </c>
-      <c r="J20" s="15">
-        <v>10285091</v>
-      </c>
-      <c r="K20" s="15">
-        <v>12659289</v>
-      </c>
-      <c r="L20" s="15">
-        <v>12658289</v>
-      </c>
-      <c r="M20" s="15">
-        <v>15754470</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>20165288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1295,241 +1053,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>28547530</v>
+        <v>75976729</v>
       </c>
       <c r="E22" s="15">
-        <v>32054368</v>
+        <v>85432406</v>
       </c>
       <c r="F22" s="15">
-        <v>34160774</v>
+        <v>93296232</v>
       </c>
       <c r="G22" s="15">
-        <v>47555160</v>
+        <v>104975054</v>
       </c>
       <c r="H22" s="15">
-        <v>53102565</v>
-      </c>
-      <c r="I22" s="15">
-        <v>60147730</v>
-      </c>
-      <c r="J22" s="15">
-        <v>75976729</v>
-      </c>
-      <c r="K22" s="15">
-        <v>85432406</v>
-      </c>
-      <c r="L22" s="15">
-        <v>93296232</v>
-      </c>
-      <c r="M22" s="15">
-        <v>104609156</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>106738562</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>726242</v>
+        <v>724973</v>
       </c>
       <c r="E23" s="11">
-        <v>725991</v>
+        <v>724811</v>
       </c>
       <c r="F23" s="11">
-        <v>725740</v>
+        <v>724687</v>
       </c>
       <c r="G23" s="11">
-        <v>725491</v>
+        <v>724565</v>
       </c>
       <c r="H23" s="11">
-        <v>725300</v>
-      </c>
-      <c r="I23" s="11">
-        <v>725137</v>
-      </c>
-      <c r="J23" s="11">
-        <v>724973</v>
-      </c>
-      <c r="K23" s="11">
-        <v>724811</v>
-      </c>
-      <c r="L23" s="11">
-        <v>724687</v>
-      </c>
-      <c r="M23" s="11">
-        <v>724565</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>774952</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>3351342</v>
+        <v>6633812</v>
       </c>
       <c r="E25" s="11">
-        <v>2850366</v>
+        <v>8971424</v>
       </c>
       <c r="F25" s="11">
-        <v>2853448</v>
+        <v>9627973</v>
       </c>
       <c r="G25" s="11">
-        <v>4228524</v>
+        <v>15485067</v>
       </c>
       <c r="H25" s="11">
-        <v>3970629</v>
-      </c>
-      <c r="I25" s="11">
-        <v>3659913</v>
-      </c>
-      <c r="J25" s="11">
-        <v>6633812</v>
-      </c>
-      <c r="K25" s="11">
-        <v>8971424</v>
-      </c>
-      <c r="L25" s="11">
-        <v>9627973</v>
-      </c>
-      <c r="M25" s="11">
-        <v>15485067</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>17583007</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>52919425</v>
+        <v>115786228</v>
       </c>
       <c r="E26" s="17">
-        <v>56683051</v>
+        <v>132618215</v>
       </c>
       <c r="F26" s="17">
-        <v>59469051</v>
+        <v>145777824</v>
       </c>
       <c r="G26" s="17">
-        <v>77097876</v>
+        <v>169939024</v>
       </c>
       <c r="H26" s="17">
-        <v>84312057</v>
-      </c>
-      <c r="I26" s="17">
-        <v>94245779</v>
-      </c>
-      <c r="J26" s="17">
-        <v>115786228</v>
-      </c>
-      <c r="K26" s="17">
-        <v>132618215</v>
-      </c>
-      <c r="L26" s="17">
-        <v>145777824</v>
-      </c>
-      <c r="M26" s="17">
-        <v>169412973</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>181252282</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>157836212</v>
+        <v>364442289</v>
       </c>
       <c r="E27" s="19">
-        <v>177684598</v>
+        <v>403709488</v>
       </c>
       <c r="F27" s="19">
-        <v>194972301</v>
+        <v>454539952</v>
       </c>
       <c r="G27" s="19">
-        <v>253955385</v>
+        <v>519803968</v>
       </c>
       <c r="H27" s="19">
-        <v>300498408</v>
-      </c>
-      <c r="I27" s="19">
-        <v>327160879</v>
-      </c>
-      <c r="J27" s="19">
-        <v>364442289</v>
-      </c>
-      <c r="K27" s="19">
-        <v>408767448</v>
-      </c>
-      <c r="L27" s="19">
-        <v>454539952</v>
-      </c>
-      <c r="M27" s="19">
-        <v>505706137</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>510840241</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1537,231 +1190,136 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>43433016</v>
+        <v>73165356</v>
       </c>
       <c r="E29" s="15">
-        <v>38332039</v>
+        <v>100303238</v>
       </c>
       <c r="F29" s="15">
-        <v>30526074</v>
+        <v>127829175</v>
       </c>
       <c r="G29" s="15">
-        <v>40466304</v>
+        <v>204430371</v>
       </c>
       <c r="H29" s="15">
-        <v>48351481</v>
-      </c>
-      <c r="I29" s="15">
-        <v>61524104</v>
-      </c>
-      <c r="J29" s="15">
-        <v>73165356</v>
-      </c>
-      <c r="K29" s="15">
-        <v>105361198</v>
-      </c>
-      <c r="L29" s="15">
-        <v>127829175</v>
-      </c>
-      <c r="M29" s="15">
-        <v>179609439</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>200285303</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>17215197</v>
+        <v>12431592</v>
       </c>
       <c r="E31" s="15">
-        <v>19488294</v>
+        <v>19290144</v>
       </c>
       <c r="F31" s="15">
-        <v>11584655</v>
+        <v>9127640</v>
       </c>
       <c r="G31" s="15">
-        <v>19541138</v>
+        <v>16573574</v>
       </c>
       <c r="H31" s="15">
-        <v>20985531</v>
-      </c>
-      <c r="I31" s="15">
-        <v>16952362</v>
-      </c>
-      <c r="J31" s="15">
-        <v>12431592</v>
-      </c>
-      <c r="K31" s="15">
-        <v>19290144</v>
-      </c>
-      <c r="L31" s="15">
-        <v>9127640</v>
-      </c>
-      <c r="M31" s="15">
-        <v>16573574</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>13137201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>3666012</v>
+        <v>7434491</v>
       </c>
       <c r="E32" s="11">
-        <v>4630008</v>
+        <v>9145967</v>
       </c>
       <c r="F32" s="11">
-        <v>5816922</v>
+        <v>11222349</v>
       </c>
       <c r="G32" s="11">
-        <v>3988256</v>
+        <v>8790366</v>
       </c>
       <c r="H32" s="11">
-        <v>5050255</v>
-      </c>
-      <c r="I32" s="11">
-        <v>4992110</v>
-      </c>
-      <c r="J32" s="11">
-        <v>7434491</v>
-      </c>
-      <c r="K32" s="11">
-        <v>9145967</v>
-      </c>
-      <c r="L32" s="11">
-        <v>11222349</v>
-      </c>
-      <c r="M32" s="11">
-        <v>8785346</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>9233672</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>980125</v>
+        <v>18507915</v>
       </c>
       <c r="E33" s="15">
-        <v>8579949</v>
+        <v>2731447</v>
       </c>
       <c r="F33" s="15">
-        <v>4849343</v>
+        <v>970781</v>
       </c>
       <c r="G33" s="15">
-        <v>269729</v>
+        <v>30193656</v>
       </c>
       <c r="H33" s="15">
-        <v>205909</v>
-      </c>
-      <c r="I33" s="15">
-        <v>30334992</v>
-      </c>
-      <c r="J33" s="15">
-        <v>18507915</v>
-      </c>
-      <c r="K33" s="15">
-        <v>2731447</v>
-      </c>
-      <c r="L33" s="15">
-        <v>970781</v>
-      </c>
-      <c r="M33" s="15">
-        <v>30193656</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14163706</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>9005150</v>
+        <v>5522066</v>
       </c>
       <c r="E34" s="11">
-        <v>9017265</v>
+        <v>5314548</v>
       </c>
       <c r="F34" s="11">
-        <v>8517972</v>
+        <v>5387091</v>
       </c>
       <c r="G34" s="11">
-        <v>8297115</v>
+        <v>5455885</v>
       </c>
       <c r="H34" s="11">
-        <v>5784185</v>
-      </c>
-      <c r="I34" s="11">
-        <v>5916675</v>
-      </c>
-      <c r="J34" s="11">
-        <v>5522066</v>
-      </c>
-      <c r="K34" s="11">
-        <v>5314548</v>
-      </c>
-      <c r="L34" s="11">
-        <v>5387091</v>
-      </c>
-      <c r="M34" s="11">
-        <v>5455885</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5576806</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1779,25 +1337,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1815,133 +1358,73 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>74299500</v>
+        <v>117061420</v>
       </c>
       <c r="E37" s="17">
-        <v>80047555</v>
+        <v>136785344</v>
       </c>
       <c r="F37" s="17">
-        <v>61294966</v>
+        <v>154537036</v>
       </c>
       <c r="G37" s="17">
-        <v>72562542</v>
+        <v>265443852</v>
       </c>
       <c r="H37" s="17">
-        <v>80377361</v>
-      </c>
-      <c r="I37" s="17">
-        <v>119720243</v>
-      </c>
-      <c r="J37" s="17">
-        <v>117061420</v>
-      </c>
-      <c r="K37" s="17">
-        <v>141843304</v>
-      </c>
-      <c r="L37" s="17">
-        <v>154537036</v>
-      </c>
-      <c r="M37" s="17">
-        <v>240617900</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>242396688</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>0</v>
+        <v>9469220</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>9185745</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>9185745</v>
       </c>
       <c r="G38" s="11">
-        <v>7504712</v>
+        <v>0</v>
       </c>
       <c r="H38" s="11">
-        <v>8025785</v>
-      </c>
-      <c r="I38" s="11">
-        <v>9469220</v>
-      </c>
-      <c r="J38" s="11">
-        <v>9469220</v>
-      </c>
-      <c r="K38" s="11">
-        <v>9185745</v>
-      </c>
-      <c r="L38" s="11">
-        <v>9185745</v>
-      </c>
-      <c r="M38" s="11">
-        <v>6137299</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6983140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1959,133 +1442,73 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>3145443</v>
+        <v>6533229</v>
       </c>
       <c r="E41" s="15">
-        <v>3388577</v>
+        <v>7075705</v>
       </c>
       <c r="F41" s="15">
-        <v>3545892</v>
+        <v>9374364</v>
       </c>
       <c r="G41" s="15">
-        <v>4239971</v>
+        <v>10347952</v>
       </c>
       <c r="H41" s="15">
-        <v>5438044</v>
-      </c>
-      <c r="I41" s="15">
-        <v>5992161</v>
-      </c>
-      <c r="J41" s="15">
-        <v>6533229</v>
-      </c>
-      <c r="K41" s="15">
-        <v>7075705</v>
-      </c>
-      <c r="L41" s="15">
-        <v>9374364</v>
-      </c>
-      <c r="M41" s="15">
-        <v>10347952</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>11213829</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>3145443</v>
+        <v>16002449</v>
       </c>
       <c r="E42" s="19">
-        <v>3388577</v>
+        <v>16261450</v>
       </c>
       <c r="F42" s="19">
-        <v>3545892</v>
+        <v>18560109</v>
       </c>
       <c r="G42" s="19">
-        <v>11744683</v>
+        <v>10347952</v>
       </c>
       <c r="H42" s="19">
-        <v>13463829</v>
-      </c>
-      <c r="I42" s="19">
-        <v>15461381</v>
-      </c>
-      <c r="J42" s="19">
-        <v>16002449</v>
-      </c>
-      <c r="K42" s="19">
-        <v>16261450</v>
-      </c>
-      <c r="L42" s="19">
-        <v>18560109</v>
-      </c>
-      <c r="M42" s="19">
-        <v>16485251</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>18196969</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>77444943</v>
+        <v>133063869</v>
       </c>
       <c r="E43" s="17">
-        <v>83436132</v>
+        <v>153046794</v>
       </c>
       <c r="F43" s="17">
-        <v>64840858</v>
+        <v>173097145</v>
       </c>
       <c r="G43" s="17">
-        <v>84307225</v>
+        <v>275791804</v>
       </c>
       <c r="H43" s="17">
-        <v>93841190</v>
-      </c>
-      <c r="I43" s="17">
-        <v>135181624</v>
-      </c>
-      <c r="J43" s="17">
-        <v>133063869</v>
-      </c>
-      <c r="K43" s="17">
-        <v>158104754</v>
-      </c>
-      <c r="L43" s="17">
-        <v>173097145</v>
-      </c>
-      <c r="M43" s="17">
-        <v>257103151</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>260593657</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2093,51 +1516,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>19048697</v>
+        <v>120000000</v>
       </c>
       <c r="E45" s="15">
-        <v>19048697</v>
+        <v>120000000</v>
       </c>
       <c r="F45" s="15">
-        <v>19048697</v>
+        <v>120000000</v>
       </c>
       <c r="G45" s="15">
-        <v>50000000</v>
+        <v>190000000</v>
       </c>
       <c r="H45" s="15">
-        <v>50000000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>50000000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>120000000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>120000000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>120000000</v>
-      </c>
-      <c r="M45" s="15">
         <v>190000000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2155,25 +1558,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2191,61 +1579,31 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>70000000</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
-        <v>0</v>
+        <v>-3912948</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-4437327</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-4437327</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-4437327</v>
       </c>
       <c r="H48" s="11">
-        <v>-633554</v>
-      </c>
-      <c r="I48" s="11">
-        <v>-3912948</v>
-      </c>
-      <c r="J48" s="11">
-        <v>-3912948</v>
-      </c>
-      <c r="K48" s="11">
         <v>-4437327</v>
       </c>
-      <c r="L48" s="11">
-        <v>-4437327</v>
-      </c>
-      <c r="M48" s="11">
-        <v>-4437327</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2263,61 +1621,31 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>1904870</v>
+        <v>5000000</v>
       </c>
       <c r="E50" s="11">
-        <v>1904870</v>
+        <v>12000000</v>
       </c>
       <c r="F50" s="11">
-        <v>1904870</v>
+        <v>12000000</v>
       </c>
       <c r="G50" s="11">
-        <v>5000000</v>
+        <v>13637573</v>
       </c>
       <c r="H50" s="11">
-        <v>5000000</v>
-      </c>
-      <c r="I50" s="11">
-        <v>5000000</v>
-      </c>
-      <c r="J50" s="11">
-        <v>5000000</v>
-      </c>
-      <c r="K50" s="11">
-        <v>12000000</v>
-      </c>
-      <c r="L50" s="11">
-        <v>12000000</v>
-      </c>
-      <c r="M50" s="11">
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+        <v>13949294</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2335,61 +1663,31 @@
       <c r="H51" s="15">
         <v>43798</v>
       </c>
-      <c r="I51" s="15">
-        <v>43798</v>
-      </c>
-      <c r="J51" s="15">
-        <v>43798</v>
-      </c>
-      <c r="K51" s="15">
-        <v>43798</v>
-      </c>
-      <c r="L51" s="15">
-        <v>43798</v>
-      </c>
-      <c r="M51" s="15">
-        <v>43798</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2407,61 +1705,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2479,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>59393904</v>
+        <v>110247570</v>
       </c>
       <c r="E56" s="11">
-        <v>73251101</v>
+        <v>123056223</v>
       </c>
       <c r="F56" s="11">
-        <v>109134078</v>
+        <v>153836336</v>
       </c>
       <c r="G56" s="11">
-        <v>114604362</v>
+        <v>44768120</v>
       </c>
       <c r="H56" s="11">
-        <v>152246974</v>
-      </c>
-      <c r="I56" s="11">
-        <v>70848405</v>
-      </c>
-      <c r="J56" s="11">
-        <v>110247570</v>
-      </c>
-      <c r="K56" s="11">
-        <v>123056223</v>
-      </c>
-      <c r="L56" s="11">
-        <v>153836336</v>
-      </c>
-      <c r="M56" s="11">
-        <v>50996515</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>50690819</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>80391269</v>
+        <v>231378420</v>
       </c>
       <c r="E57" s="17">
-        <v>94248466</v>
+        <v>250662694</v>
       </c>
       <c r="F57" s="17">
-        <v>130131443</v>
+        <v>281442807</v>
       </c>
       <c r="G57" s="17">
-        <v>169648160</v>
+        <v>244012164</v>
       </c>
       <c r="H57" s="17">
-        <v>206657218</v>
-      </c>
-      <c r="I57" s="17">
-        <v>191979255</v>
-      </c>
-      <c r="J57" s="17">
-        <v>231378420</v>
-      </c>
-      <c r="K57" s="17">
-        <v>250662694</v>
-      </c>
-      <c r="L57" s="17">
-        <v>281442807</v>
-      </c>
-      <c r="M57" s="17">
-        <v>248602986</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>250246584</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>157836212</v>
+        <v>364442289</v>
       </c>
       <c r="E58" s="19">
-        <v>177684598</v>
+        <v>403709488</v>
       </c>
       <c r="F58" s="19">
-        <v>194972301</v>
+        <v>454539952</v>
       </c>
       <c r="G58" s="19">
-        <v>253955385</v>
+        <v>519803968</v>
       </c>
       <c r="H58" s="19">
-        <v>300498408</v>
-      </c>
-      <c r="I58" s="19">
-        <v>327160879</v>
-      </c>
-      <c r="J58" s="19">
-        <v>364442289</v>
-      </c>
-      <c r="K58" s="19">
-        <v>408767448</v>
-      </c>
-      <c r="L58" s="19">
-        <v>454539952</v>
-      </c>
-      <c r="M58" s="19">
-        <v>505706137</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>510840241</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2611,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F13514-057D-447A-AB67-39C80972614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EDEEA5-F6A6-4BF3-9BAA-3F483542C274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-10-15 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-30</t>
+  </si>
+  <si>
+    <t>1401-04-16 (10)</t>
+  </si>
+  <si>
+    <t>1400-05-11 (2)</t>
+  </si>
+  <si>
+    <t>1400-10-07 (3)</t>
   </si>
   <si>
     <t>1400-10-30</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>30326498</v>
+      </c>
+      <c r="E12" s="15">
+        <v>14471806</v>
+      </c>
+      <c r="F12" s="15">
+        <v>31294267</v>
+      </c>
+      <c r="G12" s="15">
+        <v>33630853</v>
+      </c>
+      <c r="H12" s="15">
+        <v>27739262</v>
+      </c>
+      <c r="I12" s="15">
         <v>23257699</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>11515059</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>10898467</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>15145657</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>8456471</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>3657884</v>
+        <v>2690000</v>
       </c>
       <c r="E13" s="11">
         <v>2690000</v>
       </c>
       <c r="F13" s="11">
+        <v>3657884</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3657884</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3657884</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3657884</v>
+      </c>
+      <c r="J13" s="11">
         <v>2690000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
         <v>2690000</v>
       </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>2690000</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>2690000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>29536090</v>
+      </c>
+      <c r="E14" s="15">
+        <v>57021401</v>
+      </c>
+      <c r="F14" s="15">
+        <v>59160218</v>
+      </c>
+      <c r="G14" s="15">
+        <v>72047051</v>
+      </c>
+      <c r="H14" s="15">
+        <v>67650490</v>
+      </c>
+      <c r="I14" s="15">
         <v>63490355</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>113204008</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>123268448</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>135731049</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>117205624</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>55973358</v>
+      </c>
+      <c r="E15" s="11">
+        <v>59226873</v>
+      </c>
+      <c r="F15" s="11">
+        <v>79340060</v>
+      </c>
+      <c r="G15" s="11">
+        <v>102424156</v>
+      </c>
+      <c r="H15" s="11">
+        <v>130134989</v>
+      </c>
+      <c r="I15" s="11">
         <v>150717414</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>134501506</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>159933854</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>186844355</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>156871049</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>2475601</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2093170</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3405080</v>
+      </c>
+      <c r="G16" s="15">
+        <v>4426407</v>
+      </c>
+      <c r="H16" s="15">
+        <v>3732475</v>
+      </c>
+      <c r="I16" s="15">
         <v>7532709</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>9180700</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>11971359</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>9453883</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>44364815</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,73 +1151,133 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>121001547</v>
+      </c>
+      <c r="E18" s="17">
+        <v>135503250</v>
+      </c>
+      <c r="F18" s="17">
+        <v>176857509</v>
+      </c>
+      <c r="G18" s="17">
+        <v>216186351</v>
+      </c>
+      <c r="H18" s="17">
+        <v>232915100</v>
+      </c>
+      <c r="I18" s="17">
         <v>248656061</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>271091273</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>308762128</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>349864944</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>329587959</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>10775928</v>
+      </c>
+      <c r="E19" s="11">
+        <v>11393782</v>
+      </c>
+      <c r="F19" s="11">
+        <v>14303610</v>
+      </c>
+      <c r="G19" s="11">
+        <v>16228472</v>
+      </c>
+      <c r="H19" s="11">
+        <v>19427908</v>
+      </c>
+      <c r="I19" s="11">
         <v>22165623</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>24830285</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>29470643</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>29443174</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>35990473</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>10276398</v>
+      </c>
+      <c r="E20" s="15">
+        <v>10335307</v>
+      </c>
+      <c r="F20" s="15">
         <v>10285091</v>
       </c>
-      <c r="E20" s="15">
+      <c r="G20" s="15">
+        <v>10285091</v>
+      </c>
+      <c r="H20" s="15">
+        <v>10285091</v>
+      </c>
+      <c r="I20" s="15">
+        <v>10285091</v>
+      </c>
+      <c r="J20" s="15">
         <v>12659289</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>12658289</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>19311164</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>20165288</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,136 +1295,241 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>32054368</v>
+      </c>
+      <c r="E22" s="15">
+        <v>34160774</v>
+      </c>
+      <c r="F22" s="15">
+        <v>47555160</v>
+      </c>
+      <c r="G22" s="15">
+        <v>53102565</v>
+      </c>
+      <c r="H22" s="15">
+        <v>60147730</v>
+      </c>
+      <c r="I22" s="15">
         <v>75976729</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>85432406</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>93296232</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>104975054</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>106738562</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>725991</v>
+      </c>
+      <c r="E23" s="11">
+        <v>725740</v>
+      </c>
+      <c r="F23" s="11">
+        <v>725491</v>
+      </c>
+      <c r="G23" s="11">
+        <v>725300</v>
+      </c>
+      <c r="H23" s="11">
+        <v>725137</v>
+      </c>
+      <c r="I23" s="11">
         <v>724973</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>724811</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>724687</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>724565</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>774952</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>2850366</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2853448</v>
+      </c>
+      <c r="F25" s="11">
+        <v>4228524</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3970629</v>
+      </c>
+      <c r="H25" s="11">
+        <v>3659913</v>
+      </c>
+      <c r="I25" s="11">
         <v>6633812</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
         <v>8971424</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>9627973</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>15485067</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>17583007</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>56683051</v>
+      </c>
+      <c r="E26" s="17">
+        <v>59469051</v>
+      </c>
+      <c r="F26" s="17">
+        <v>77097876</v>
+      </c>
+      <c r="G26" s="17">
+        <v>84312057</v>
+      </c>
+      <c r="H26" s="17">
+        <v>94245779</v>
+      </c>
+      <c r="I26" s="17">
         <v>115786228</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>132618215</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>145777824</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>169939024</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>181252282</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>177684598</v>
+      </c>
+      <c r="E27" s="19">
+        <v>194972301</v>
+      </c>
+      <c r="F27" s="19">
+        <v>253955385</v>
+      </c>
+      <c r="G27" s="19">
+        <v>300498408</v>
+      </c>
+      <c r="H27" s="19">
+        <v>327160879</v>
+      </c>
+      <c r="I27" s="19">
         <v>364442289</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>403709488</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>454539952</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>519803968</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>510840241</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,136 +1537,231 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>38332039</v>
+      </c>
+      <c r="E29" s="15">
+        <v>30526074</v>
+      </c>
+      <c r="F29" s="15">
+        <v>40466304</v>
+      </c>
+      <c r="G29" s="15">
+        <v>48351481</v>
+      </c>
+      <c r="H29" s="15">
+        <v>61524104</v>
+      </c>
+      <c r="I29" s="15">
         <v>73165356</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>100303238</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>127829175</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>204430371</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>200285303</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>19488294</v>
+      </c>
+      <c r="E31" s="15">
+        <v>11584655</v>
+      </c>
+      <c r="F31" s="15">
+        <v>19541138</v>
+      </c>
+      <c r="G31" s="15">
+        <v>20985531</v>
+      </c>
+      <c r="H31" s="15">
+        <v>16952362</v>
+      </c>
+      <c r="I31" s="15">
         <v>12431592</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>19290144</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>9127640</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>16573574</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>13137201</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>4630008</v>
+      </c>
+      <c r="E32" s="11">
+        <v>5816922</v>
+      </c>
+      <c r="F32" s="11">
+        <v>3988256</v>
+      </c>
+      <c r="G32" s="11">
+        <v>5050255</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4992110</v>
+      </c>
+      <c r="I32" s="11">
         <v>7434491</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>9145967</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>11222349</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>8790366</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>9233672</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>8579949</v>
+      </c>
+      <c r="E33" s="15">
+        <v>4849343</v>
+      </c>
+      <c r="F33" s="15">
+        <v>269729</v>
+      </c>
+      <c r="G33" s="15">
+        <v>205909</v>
+      </c>
+      <c r="H33" s="15">
+        <v>30334992</v>
+      </c>
+      <c r="I33" s="15">
         <v>18507915</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>2731447</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>970781</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>30193656</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>14163706</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>9017265</v>
+      </c>
+      <c r="E34" s="11">
+        <v>8517972</v>
+      </c>
+      <c r="F34" s="11">
+        <v>8297115</v>
+      </c>
+      <c r="G34" s="11">
+        <v>5784185</v>
+      </c>
+      <c r="H34" s="11">
+        <v>5916675</v>
+      </c>
+      <c r="I34" s="11">
         <v>5522066</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>5314548</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>5387091</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>5455885</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>5576806</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1779,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,73 +1815,133 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>80047555</v>
+      </c>
+      <c r="E37" s="17">
+        <v>61294966</v>
+      </c>
+      <c r="F37" s="17">
+        <v>72562542</v>
+      </c>
+      <c r="G37" s="17">
+        <v>80377361</v>
+      </c>
+      <c r="H37" s="17">
+        <v>119720243</v>
+      </c>
+      <c r="I37" s="17">
         <v>117061420</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>136785344</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>154537036</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>265443852</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>242396688</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>7504712</v>
+      </c>
+      <c r="G38" s="11">
+        <v>8025785</v>
+      </c>
+      <c r="H38" s="11">
         <v>9469220</v>
       </c>
-      <c r="E38" s="11">
+      <c r="I38" s="11">
+        <v>9469220</v>
+      </c>
+      <c r="J38" s="11">
         <v>9185745</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>9185745</v>
       </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>6983140</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,73 +1959,133 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>3388577</v>
+      </c>
+      <c r="E41" s="15">
+        <v>3545892</v>
+      </c>
+      <c r="F41" s="15">
+        <v>4239971</v>
+      </c>
+      <c r="G41" s="15">
+        <v>5438044</v>
+      </c>
+      <c r="H41" s="15">
+        <v>5992161</v>
+      </c>
+      <c r="I41" s="15">
         <v>6533229</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>7075705</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>9374364</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>10347952</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>11213829</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>3388577</v>
+      </c>
+      <c r="E42" s="19">
+        <v>3545892</v>
+      </c>
+      <c r="F42" s="19">
+        <v>11744683</v>
+      </c>
+      <c r="G42" s="19">
+        <v>13463829</v>
+      </c>
+      <c r="H42" s="19">
+        <v>15461381</v>
+      </c>
+      <c r="I42" s="19">
         <v>16002449</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>16261450</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>18560109</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>10347952</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>18196969</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>83436132</v>
+      </c>
+      <c r="E43" s="17">
+        <v>64840858</v>
+      </c>
+      <c r="F43" s="17">
+        <v>84307225</v>
+      </c>
+      <c r="G43" s="17">
+        <v>93841190</v>
+      </c>
+      <c r="H43" s="17">
+        <v>135181624</v>
+      </c>
+      <c r="I43" s="17">
         <v>133063869</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>153046794</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>173097145</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>275791804</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>260593657</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
+        <v>19048697</v>
+      </c>
+      <c r="E45" s="15">
+        <v>19048697</v>
+      </c>
+      <c r="F45" s="15">
+        <v>50000000</v>
+      </c>
+      <c r="G45" s="15">
+        <v>50000000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>50000000</v>
+      </c>
+      <c r="I45" s="15">
         <v>120000000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="J45" s="15">
         <v>120000000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K45" s="15">
         <v>120000000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="L45" s="15">
         <v>190000000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>190000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1577,33 +2189,63 @@
         <v>0</v>
       </c>
       <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+        <v>70000000</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-633554</v>
+      </c>
+      <c r="H48" s="11">
         <v>-3912948</v>
       </c>
-      <c r="E48" s="11">
+      <c r="I48" s="11">
+        <v>-3912948</v>
+      </c>
+      <c r="J48" s="11">
         <v>-4437327</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-4437327</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-4437327</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-4437327</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,31 +2263,61 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>1904870</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1904870</v>
+      </c>
+      <c r="F50" s="11">
         <v>5000000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="G50" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="I50" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="J50" s="11">
         <v>12000000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>12000000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>13637573</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>13949294</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>43798</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>43798</v>
+      </c>
+      <c r="J51" s="15">
+        <v>43798</v>
+      </c>
+      <c r="K51" s="15">
+        <v>43798</v>
+      </c>
+      <c r="L51" s="15">
+        <v>43798</v>
+      </c>
+      <c r="M51" s="15">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>73251101</v>
+      </c>
+      <c r="E56" s="11">
+        <v>109134078</v>
+      </c>
+      <c r="F56" s="11">
+        <v>114604362</v>
+      </c>
+      <c r="G56" s="11">
+        <v>152246974</v>
+      </c>
+      <c r="H56" s="11">
+        <v>70848405</v>
+      </c>
+      <c r="I56" s="11">
         <v>110247570</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>123056223</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>153836336</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>44768120</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>50690819</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>94248466</v>
+      </c>
+      <c r="E57" s="17">
+        <v>130131443</v>
+      </c>
+      <c r="F57" s="17">
+        <v>169648160</v>
+      </c>
+      <c r="G57" s="17">
+        <v>206657218</v>
+      </c>
+      <c r="H57" s="17">
+        <v>191979255</v>
+      </c>
+      <c r="I57" s="17">
         <v>231378420</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>250662694</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>281442807</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>244012164</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>250246584</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>177684598</v>
+      </c>
+      <c r="E58" s="19">
+        <v>194972301</v>
+      </c>
+      <c r="F58" s="19">
+        <v>253955385</v>
+      </c>
+      <c r="G58" s="19">
+        <v>300498408</v>
+      </c>
+      <c r="H58" s="19">
+        <v>327160879</v>
+      </c>
+      <c r="I58" s="19">
         <v>364442289</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>403709488</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>454539952</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>519803968</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>510840241</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EDEEA5-F6A6-4BF3-9BAA-3F483542C274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4C46A4-D7E2-40BF-9CF8-6B4AE6B6154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -743,7 +743,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +757,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +803,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +849,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +935,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
@@ -987,7 +987,7 @@
         <v>8456471</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>2690000</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>117205624</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>156871049</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>44364815</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>329587959</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>35990473</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>20165288</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>106738562</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>774952</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>17583007</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>181252282</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>510840241</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>200285303</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>13137201</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>9233672</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>14163706</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>5576806</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>242396688</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>6983140</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>11213829</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>18196969</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>260593657</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>190000000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>-4437327</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>13949294</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>50690819</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>250246584</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>510840241</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4C46A4-D7E2-40BF-9CF8-6B4AE6B6154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32172A-90EA-4712-BBD2-82524AE561F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32172A-90EA-4712-BBD2-82524AE561F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177C3207-6799-4E55-867E-6157FC38A3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="708" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-10-15 (2)</t>
-  </si>
-  <si>
     <t>1399-10-30</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-04-18 (10)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-04-18 (3)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -736,11 +736,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -957,34 +958,34 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>30326498</v>
+        <v>14471806</v>
       </c>
       <c r="E12" s="15">
-        <v>14471806</v>
+        <v>31294267</v>
       </c>
       <c r="F12" s="15">
-        <v>31294267</v>
+        <v>33630853</v>
       </c>
       <c r="G12" s="15">
-        <v>33630853</v>
+        <v>27739262</v>
       </c>
       <c r="H12" s="15">
-        <v>27739262</v>
+        <v>23257699</v>
       </c>
       <c r="I12" s="15">
-        <v>23257699</v>
+        <v>11515059</v>
       </c>
       <c r="J12" s="15">
-        <v>11515059</v>
+        <v>10898467</v>
       </c>
       <c r="K12" s="15">
-        <v>10898467</v>
+        <v>15145657</v>
       </c>
       <c r="L12" s="15">
-        <v>15145657</v>
+        <v>8456471</v>
       </c>
       <c r="M12" s="15">
-        <v>8456471</v>
+        <v>35304322</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -996,7 +997,7 @@
         <v>2690000</v>
       </c>
       <c r="E13" s="11">
-        <v>2690000</v>
+        <v>3657884</v>
       </c>
       <c r="F13" s="11">
         <v>3657884</v>
@@ -1008,7 +1009,7 @@
         <v>3657884</v>
       </c>
       <c r="I13" s="11">
-        <v>3657884</v>
+        <v>2690000</v>
       </c>
       <c r="J13" s="11">
         <v>2690000</v>
@@ -1020,7 +1021,7 @@
         <v>2690000</v>
       </c>
       <c r="M13" s="11">
-        <v>2690000</v>
+        <v>3690000</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -1029,34 +1030,34 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>29536090</v>
+        <v>57021401</v>
       </c>
       <c r="E14" s="15">
-        <v>57021401</v>
+        <v>59160218</v>
       </c>
       <c r="F14" s="15">
-        <v>59160218</v>
+        <v>72047051</v>
       </c>
       <c r="G14" s="15">
-        <v>72047051</v>
+        <v>67650490</v>
       </c>
       <c r="H14" s="15">
-        <v>67650490</v>
+        <v>63490355</v>
       </c>
       <c r="I14" s="15">
-        <v>63490355</v>
+        <v>113204008</v>
       </c>
       <c r="J14" s="15">
-        <v>113204008</v>
+        <v>123268448</v>
       </c>
       <c r="K14" s="15">
-        <v>123268448</v>
+        <v>135731049</v>
       </c>
       <c r="L14" s="15">
-        <v>135731049</v>
+        <v>117205624</v>
       </c>
       <c r="M14" s="15">
-        <v>117205624</v>
+        <v>128416058</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1065,34 +1066,34 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>55973358</v>
+        <v>59226873</v>
       </c>
       <c r="E15" s="11">
-        <v>59226873</v>
+        <v>79340060</v>
       </c>
       <c r="F15" s="11">
-        <v>79340060</v>
+        <v>102424156</v>
       </c>
       <c r="G15" s="11">
-        <v>102424156</v>
+        <v>130134989</v>
       </c>
       <c r="H15" s="11">
-        <v>130134989</v>
+        <v>150717414</v>
       </c>
       <c r="I15" s="11">
-        <v>150717414</v>
+        <v>134501506</v>
       </c>
       <c r="J15" s="11">
-        <v>134501506</v>
+        <v>159933854</v>
       </c>
       <c r="K15" s="11">
-        <v>159933854</v>
+        <v>186844355</v>
       </c>
       <c r="L15" s="11">
-        <v>186844355</v>
+        <v>156871049</v>
       </c>
       <c r="M15" s="11">
-        <v>156871049</v>
+        <v>171529990</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -1101,34 +1102,34 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>2475601</v>
+        <v>2093170</v>
       </c>
       <c r="E16" s="15">
-        <v>2093170</v>
+        <v>3405080</v>
       </c>
       <c r="F16" s="15">
-        <v>3405080</v>
+        <v>4426407</v>
       </c>
       <c r="G16" s="15">
-        <v>4426407</v>
+        <v>3732475</v>
       </c>
       <c r="H16" s="15">
-        <v>3732475</v>
+        <v>7532709</v>
       </c>
       <c r="I16" s="15">
-        <v>7532709</v>
+        <v>9180700</v>
       </c>
       <c r="J16" s="15">
-        <v>9180700</v>
+        <v>11971359</v>
       </c>
       <c r="K16" s="15">
-        <v>11971359</v>
+        <v>9453883</v>
       </c>
       <c r="L16" s="15">
-        <v>9453883</v>
+        <v>44364815</v>
       </c>
       <c r="M16" s="15">
-        <v>44364815</v>
+        <v>32223780</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1173,34 +1174,34 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>121001547</v>
+        <v>135503250</v>
       </c>
       <c r="E18" s="17">
-        <v>135503250</v>
+        <v>176857509</v>
       </c>
       <c r="F18" s="17">
-        <v>176857509</v>
+        <v>216186351</v>
       </c>
       <c r="G18" s="17">
-        <v>216186351</v>
+        <v>232915100</v>
       </c>
       <c r="H18" s="17">
-        <v>232915100</v>
+        <v>248656061</v>
       </c>
       <c r="I18" s="17">
-        <v>248656061</v>
+        <v>271091273</v>
       </c>
       <c r="J18" s="17">
-        <v>271091273</v>
+        <v>308762128</v>
       </c>
       <c r="K18" s="17">
-        <v>308762128</v>
+        <v>349864944</v>
       </c>
       <c r="L18" s="17">
-        <v>349864944</v>
+        <v>329587959</v>
       </c>
       <c r="M18" s="17">
-        <v>329587959</v>
+        <v>371164150</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1209,34 +1210,34 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>10775928</v>
+        <v>11393782</v>
       </c>
       <c r="E19" s="11">
-        <v>11393782</v>
+        <v>14303610</v>
       </c>
       <c r="F19" s="11">
-        <v>14303610</v>
+        <v>16228472</v>
       </c>
       <c r="G19" s="11">
-        <v>16228472</v>
+        <v>19427908</v>
       </c>
       <c r="H19" s="11">
-        <v>19427908</v>
+        <v>22165623</v>
       </c>
       <c r="I19" s="11">
-        <v>22165623</v>
+        <v>24830285</v>
       </c>
       <c r="J19" s="11">
-        <v>24830285</v>
+        <v>29470643</v>
       </c>
       <c r="K19" s="11">
-        <v>29470643</v>
+        <v>29443174</v>
       </c>
       <c r="L19" s="11">
-        <v>29443174</v>
+        <v>35990473</v>
       </c>
       <c r="M19" s="11">
-        <v>35990473</v>
+        <v>39358417</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1245,10 +1246,10 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>10276398</v>
+        <v>10335307</v>
       </c>
       <c r="E20" s="15">
-        <v>10335307</v>
+        <v>10285091</v>
       </c>
       <c r="F20" s="15">
         <v>10285091</v>
@@ -1260,19 +1261,19 @@
         <v>10285091</v>
       </c>
       <c r="I20" s="15">
-        <v>10285091</v>
+        <v>12659289</v>
       </c>
       <c r="J20" s="15">
-        <v>12659289</v>
+        <v>12658289</v>
       </c>
       <c r="K20" s="15">
-        <v>12658289</v>
+        <v>19311164</v>
       </c>
       <c r="L20" s="15">
-        <v>19311164</v>
+        <v>20165288</v>
       </c>
       <c r="M20" s="15">
-        <v>20165288</v>
+        <v>22641810</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1317,34 +1318,34 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>32054368</v>
+        <v>34160774</v>
       </c>
       <c r="E22" s="15">
-        <v>34160774</v>
+        <v>47555160</v>
       </c>
       <c r="F22" s="15">
-        <v>47555160</v>
+        <v>53102565</v>
       </c>
       <c r="G22" s="15">
-        <v>53102565</v>
+        <v>60147730</v>
       </c>
       <c r="H22" s="15">
-        <v>60147730</v>
+        <v>75976729</v>
       </c>
       <c r="I22" s="15">
-        <v>75976729</v>
+        <v>85432406</v>
       </c>
       <c r="J22" s="15">
-        <v>85432406</v>
+        <v>93296232</v>
       </c>
       <c r="K22" s="15">
-        <v>93296232</v>
+        <v>104975054</v>
       </c>
       <c r="L22" s="15">
-        <v>104975054</v>
+        <v>106738562</v>
       </c>
       <c r="M22" s="15">
-        <v>106738562</v>
+        <v>134167479</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1353,34 +1354,34 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>725991</v>
+        <v>725740</v>
       </c>
       <c r="E23" s="11">
-        <v>725740</v>
+        <v>725491</v>
       </c>
       <c r="F23" s="11">
-        <v>725491</v>
+        <v>725300</v>
       </c>
       <c r="G23" s="11">
-        <v>725300</v>
+        <v>725137</v>
       </c>
       <c r="H23" s="11">
-        <v>725137</v>
+        <v>724973</v>
       </c>
       <c r="I23" s="11">
-        <v>724973</v>
+        <v>724811</v>
       </c>
       <c r="J23" s="11">
-        <v>724811</v>
+        <v>724687</v>
       </c>
       <c r="K23" s="11">
-        <v>724687</v>
+        <v>724565</v>
       </c>
       <c r="L23" s="11">
-        <v>724565</v>
+        <v>774952</v>
       </c>
       <c r="M23" s="11">
-        <v>774952</v>
+        <v>728520</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
@@ -1425,34 +1426,34 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>2850366</v>
+        <v>2853448</v>
       </c>
       <c r="E25" s="11">
-        <v>2853448</v>
+        <v>4228524</v>
       </c>
       <c r="F25" s="11">
-        <v>4228524</v>
+        <v>3970629</v>
       </c>
       <c r="G25" s="11">
-        <v>3970629</v>
+        <v>3659913</v>
       </c>
       <c r="H25" s="11">
-        <v>3659913</v>
+        <v>6633812</v>
       </c>
       <c r="I25" s="11">
-        <v>6633812</v>
+        <v>8971424</v>
       </c>
       <c r="J25" s="11">
-        <v>8971424</v>
+        <v>9627973</v>
       </c>
       <c r="K25" s="11">
-        <v>9627973</v>
+        <v>15485067</v>
       </c>
       <c r="L25" s="11">
-        <v>15485067</v>
+        <v>17583007</v>
       </c>
       <c r="M25" s="11">
-        <v>17583007</v>
+        <v>18519995</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1461,34 +1462,34 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>56683051</v>
+        <v>59469051</v>
       </c>
       <c r="E26" s="17">
-        <v>59469051</v>
+        <v>77097876</v>
       </c>
       <c r="F26" s="17">
-        <v>77097876</v>
+        <v>84312057</v>
       </c>
       <c r="G26" s="17">
-        <v>84312057</v>
+        <v>94245779</v>
       </c>
       <c r="H26" s="17">
-        <v>94245779</v>
+        <v>115786228</v>
       </c>
       <c r="I26" s="17">
-        <v>115786228</v>
+        <v>132618215</v>
       </c>
       <c r="J26" s="17">
-        <v>132618215</v>
+        <v>145777824</v>
       </c>
       <c r="K26" s="17">
-        <v>145777824</v>
+        <v>169939024</v>
       </c>
       <c r="L26" s="17">
-        <v>169939024</v>
+        <v>181252282</v>
       </c>
       <c r="M26" s="17">
-        <v>181252282</v>
+        <v>215416221</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -1497,34 +1498,34 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>177684598</v>
+        <v>194972301</v>
       </c>
       <c r="E27" s="19">
-        <v>194972301</v>
+        <v>253955385</v>
       </c>
       <c r="F27" s="19">
-        <v>253955385</v>
+        <v>300498408</v>
       </c>
       <c r="G27" s="19">
-        <v>300498408</v>
+        <v>327160879</v>
       </c>
       <c r="H27" s="19">
-        <v>327160879</v>
+        <v>364442289</v>
       </c>
       <c r="I27" s="19">
-        <v>364442289</v>
+        <v>403709488</v>
       </c>
       <c r="J27" s="19">
-        <v>403709488</v>
+        <v>454539952</v>
       </c>
       <c r="K27" s="19">
-        <v>454539952</v>
+        <v>519803968</v>
       </c>
       <c r="L27" s="19">
-        <v>519803968</v>
+        <v>510840241</v>
       </c>
       <c r="M27" s="19">
-        <v>510840241</v>
+        <v>586580371</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
@@ -1549,34 +1550,34 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>38332039</v>
+        <v>30526074</v>
       </c>
       <c r="E29" s="15">
-        <v>30526074</v>
+        <v>40466304</v>
       </c>
       <c r="F29" s="15">
-        <v>40466304</v>
+        <v>48351481</v>
       </c>
       <c r="G29" s="15">
-        <v>48351481</v>
+        <v>61524104</v>
       </c>
       <c r="H29" s="15">
-        <v>61524104</v>
+        <v>73165356</v>
       </c>
       <c r="I29" s="15">
-        <v>73165356</v>
+        <v>100303238</v>
       </c>
       <c r="J29" s="15">
-        <v>100303238</v>
+        <v>127829175</v>
       </c>
       <c r="K29" s="15">
-        <v>127829175</v>
+        <v>204430371</v>
       </c>
       <c r="L29" s="15">
-        <v>204430371</v>
+        <v>200285303</v>
       </c>
       <c r="M29" s="15">
-        <v>200285303</v>
+        <v>207120811</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -1621,34 +1622,34 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>19488294</v>
+        <v>11584655</v>
       </c>
       <c r="E31" s="15">
-        <v>11584655</v>
+        <v>19541138</v>
       </c>
       <c r="F31" s="15">
-        <v>19541138</v>
+        <v>20985531</v>
       </c>
       <c r="G31" s="15">
-        <v>20985531</v>
+        <v>16952362</v>
       </c>
       <c r="H31" s="15">
-        <v>16952362</v>
+        <v>12431592</v>
       </c>
       <c r="I31" s="15">
-        <v>12431592</v>
+        <v>19290144</v>
       </c>
       <c r="J31" s="15">
-        <v>19290144</v>
+        <v>9127640</v>
       </c>
       <c r="K31" s="15">
-        <v>9127640</v>
+        <v>16573574</v>
       </c>
       <c r="L31" s="15">
-        <v>16573574</v>
+        <v>13137201</v>
       </c>
       <c r="M31" s="15">
-        <v>13137201</v>
+        <v>26953515</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -1657,34 +1658,34 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>4630008</v>
+        <v>5816922</v>
       </c>
       <c r="E32" s="11">
-        <v>5816922</v>
+        <v>3988256</v>
       </c>
       <c r="F32" s="11">
-        <v>3988256</v>
+        <v>5050255</v>
       </c>
       <c r="G32" s="11">
-        <v>5050255</v>
+        <v>4992110</v>
       </c>
       <c r="H32" s="11">
-        <v>4992110</v>
+        <v>7434491</v>
       </c>
       <c r="I32" s="11">
-        <v>7434491</v>
+        <v>9145967</v>
       </c>
       <c r="J32" s="11">
-        <v>9145967</v>
+        <v>11222349</v>
       </c>
       <c r="K32" s="11">
-        <v>11222349</v>
+        <v>8790366</v>
       </c>
       <c r="L32" s="11">
-        <v>8790366</v>
+        <v>9233672</v>
       </c>
       <c r="M32" s="11">
-        <v>9233672</v>
+        <v>1612596</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
@@ -1693,34 +1694,34 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>8579949</v>
+        <v>4849343</v>
       </c>
       <c r="E33" s="15">
-        <v>4849343</v>
+        <v>269729</v>
       </c>
       <c r="F33" s="15">
-        <v>269729</v>
+        <v>205909</v>
       </c>
       <c r="G33" s="15">
-        <v>205909</v>
+        <v>30334992</v>
       </c>
       <c r="H33" s="15">
-        <v>30334992</v>
+        <v>18507915</v>
       </c>
       <c r="I33" s="15">
-        <v>18507915</v>
+        <v>2731447</v>
       </c>
       <c r="J33" s="15">
-        <v>2731447</v>
+        <v>970781</v>
       </c>
       <c r="K33" s="15">
-        <v>970781</v>
+        <v>30193656</v>
       </c>
       <c r="L33" s="15">
-        <v>30193656</v>
+        <v>14163706</v>
       </c>
       <c r="M33" s="15">
-        <v>14163706</v>
+        <v>447113</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
@@ -1729,34 +1730,34 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>9017265</v>
+        <v>8517972</v>
       </c>
       <c r="E34" s="11">
-        <v>8517972</v>
+        <v>8297115</v>
       </c>
       <c r="F34" s="11">
-        <v>8297115</v>
+        <v>5784185</v>
       </c>
       <c r="G34" s="11">
-        <v>5784185</v>
+        <v>5916675</v>
       </c>
       <c r="H34" s="11">
-        <v>5916675</v>
+        <v>5522066</v>
       </c>
       <c r="I34" s="11">
-        <v>5522066</v>
+        <v>5314548</v>
       </c>
       <c r="J34" s="11">
-        <v>5314548</v>
+        <v>5387091</v>
       </c>
       <c r="K34" s="11">
-        <v>5387091</v>
+        <v>5455885</v>
       </c>
       <c r="L34" s="11">
-        <v>5455885</v>
+        <v>5576806</v>
       </c>
       <c r="M34" s="11">
-        <v>5576806</v>
+        <v>12774870</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
@@ -1837,34 +1838,34 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>80047555</v>
+        <v>61294966</v>
       </c>
       <c r="E37" s="17">
-        <v>61294966</v>
+        <v>72562542</v>
       </c>
       <c r="F37" s="17">
-        <v>72562542</v>
+        <v>80377361</v>
       </c>
       <c r="G37" s="17">
-        <v>80377361</v>
+        <v>119720243</v>
       </c>
       <c r="H37" s="17">
-        <v>119720243</v>
+        <v>117061420</v>
       </c>
       <c r="I37" s="17">
-        <v>117061420</v>
+        <v>136785344</v>
       </c>
       <c r="J37" s="17">
-        <v>136785344</v>
+        <v>154537036</v>
       </c>
       <c r="K37" s="17">
-        <v>154537036</v>
+        <v>265443852</v>
       </c>
       <c r="L37" s="17">
-        <v>265443852</v>
+        <v>242396688</v>
       </c>
       <c r="M37" s="17">
-        <v>242396688</v>
+        <v>248908905</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
@@ -1876,31 +1877,31 @@
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>7504712</v>
       </c>
       <c r="F38" s="11">
-        <v>7504712</v>
+        <v>8025785</v>
       </c>
       <c r="G38" s="11">
-        <v>8025785</v>
+        <v>9469220</v>
       </c>
       <c r="H38" s="11">
         <v>9469220</v>
       </c>
       <c r="I38" s="11">
-        <v>9469220</v>
+        <v>9185745</v>
       </c>
       <c r="J38" s="11">
         <v>9185745</v>
       </c>
       <c r="K38" s="11">
-        <v>9185745</v>
+        <v>0</v>
       </c>
       <c r="L38" s="11">
-        <v>0</v>
+        <v>6983140</v>
       </c>
       <c r="M38" s="11">
-        <v>6983140</v>
+        <v>17624854</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
@@ -1972,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <v>0</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -1981,34 +1982,34 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>3388577</v>
+        <v>3545892</v>
       </c>
       <c r="E41" s="15">
-        <v>3545892</v>
+        <v>4239971</v>
       </c>
       <c r="F41" s="15">
-        <v>4239971</v>
+        <v>5438044</v>
       </c>
       <c r="G41" s="15">
-        <v>5438044</v>
+        <v>5992161</v>
       </c>
       <c r="H41" s="15">
-        <v>5992161</v>
+        <v>6533229</v>
       </c>
       <c r="I41" s="15">
-        <v>6533229</v>
+        <v>7075705</v>
       </c>
       <c r="J41" s="15">
-        <v>7075705</v>
+        <v>9374364</v>
       </c>
       <c r="K41" s="15">
-        <v>9374364</v>
+        <v>10347952</v>
       </c>
       <c r="L41" s="15">
-        <v>10347952</v>
+        <v>11213829</v>
       </c>
       <c r="M41" s="15">
-        <v>11213829</v>
+        <v>12014133</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
@@ -2017,34 +2018,34 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>3388577</v>
+        <v>3545892</v>
       </c>
       <c r="E42" s="19">
-        <v>3545892</v>
+        <v>11744683</v>
       </c>
       <c r="F42" s="19">
-        <v>11744683</v>
+        <v>13463829</v>
       </c>
       <c r="G42" s="19">
-        <v>13463829</v>
+        <v>15461381</v>
       </c>
       <c r="H42" s="19">
-        <v>15461381</v>
+        <v>16002449</v>
       </c>
       <c r="I42" s="19">
-        <v>16002449</v>
+        <v>16261450</v>
       </c>
       <c r="J42" s="19">
-        <v>16261450</v>
+        <v>18560109</v>
       </c>
       <c r="K42" s="19">
-        <v>18560109</v>
+        <v>10347952</v>
       </c>
       <c r="L42" s="19">
-        <v>10347952</v>
+        <v>18196969</v>
       </c>
       <c r="M42" s="19">
-        <v>18196969</v>
+        <v>59638987</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
@@ -2053,34 +2054,34 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>83436132</v>
+        <v>64840858</v>
       </c>
       <c r="E43" s="17">
-        <v>64840858</v>
+        <v>84307225</v>
       </c>
       <c r="F43" s="17">
-        <v>84307225</v>
+        <v>93841190</v>
       </c>
       <c r="G43" s="17">
-        <v>93841190</v>
+        <v>135181624</v>
       </c>
       <c r="H43" s="17">
-        <v>135181624</v>
+        <v>133063869</v>
       </c>
       <c r="I43" s="17">
-        <v>133063869</v>
+        <v>153046794</v>
       </c>
       <c r="J43" s="17">
-        <v>153046794</v>
+        <v>173097145</v>
       </c>
       <c r="K43" s="17">
-        <v>173097145</v>
+        <v>275791804</v>
       </c>
       <c r="L43" s="17">
-        <v>275791804</v>
+        <v>260593657</v>
       </c>
       <c r="M43" s="17">
-        <v>260593657</v>
+        <v>308547892</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -2108,7 +2109,7 @@
         <v>19048697</v>
       </c>
       <c r="E45" s="15">
-        <v>19048697</v>
+        <v>50000000</v>
       </c>
       <c r="F45" s="15">
         <v>50000000</v>
@@ -2117,7 +2118,7 @@
         <v>50000000</v>
       </c>
       <c r="H45" s="15">
-        <v>50000000</v>
+        <v>120000000</v>
       </c>
       <c r="I45" s="15">
         <v>120000000</v>
@@ -2126,7 +2127,7 @@
         <v>120000000</v>
       </c>
       <c r="K45" s="15">
-        <v>120000000</v>
+        <v>190000000</v>
       </c>
       <c r="L45" s="15">
         <v>190000000</v>
@@ -2186,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
+        <v>70000000</v>
       </c>
       <c r="H47" s="15">
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="I47" s="15">
         <v>0</v>
@@ -2219,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-633554</v>
       </c>
       <c r="G48" s="11">
-        <v>-633554</v>
+        <v>-3912948</v>
       </c>
       <c r="H48" s="11">
         <v>-3912948</v>
       </c>
       <c r="I48" s="11">
-        <v>-3912948</v>
+        <v>-4437327</v>
       </c>
       <c r="J48" s="11">
         <v>-4437327</v>
@@ -2288,7 +2289,7 @@
         <v>1904870</v>
       </c>
       <c r="E50" s="11">
-        <v>1904870</v>
+        <v>5000000</v>
       </c>
       <c r="F50" s="11">
         <v>5000000</v>
@@ -2300,19 +2301,19 @@
         <v>5000000</v>
       </c>
       <c r="I50" s="11">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J50" s="11">
         <v>12000000</v>
       </c>
       <c r="K50" s="11">
-        <v>12000000</v>
+        <v>13637573</v>
       </c>
       <c r="L50" s="11">
-        <v>13637573</v>
+        <v>13949294</v>
       </c>
       <c r="M50" s="11">
-        <v>13949294</v>
+        <v>15338589</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
@@ -2501,34 +2502,34 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>73251101</v>
+        <v>109134078</v>
       </c>
       <c r="E56" s="11">
-        <v>109134078</v>
+        <v>114604362</v>
       </c>
       <c r="F56" s="11">
-        <v>114604362</v>
+        <v>152246974</v>
       </c>
       <c r="G56" s="11">
-        <v>152246974</v>
+        <v>70848405</v>
       </c>
       <c r="H56" s="11">
-        <v>70848405</v>
+        <v>110247570</v>
       </c>
       <c r="I56" s="11">
-        <v>110247570</v>
+        <v>123056223</v>
       </c>
       <c r="J56" s="11">
-        <v>123056223</v>
+        <v>153836336</v>
       </c>
       <c r="K56" s="11">
-        <v>153836336</v>
+        <v>44768120</v>
       </c>
       <c r="L56" s="11">
-        <v>44768120</v>
+        <v>50690819</v>
       </c>
       <c r="M56" s="11">
-        <v>50690819</v>
+        <v>77087419</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -2537,34 +2538,34 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>94248466</v>
+        <v>130131443</v>
       </c>
       <c r="E57" s="17">
-        <v>130131443</v>
+        <v>169648160</v>
       </c>
       <c r="F57" s="17">
-        <v>169648160</v>
+        <v>206657218</v>
       </c>
       <c r="G57" s="17">
-        <v>206657218</v>
+        <v>191979255</v>
       </c>
       <c r="H57" s="17">
-        <v>191979255</v>
+        <v>231378420</v>
       </c>
       <c r="I57" s="17">
-        <v>231378420</v>
+        <v>250662694</v>
       </c>
       <c r="J57" s="17">
-        <v>250662694</v>
+        <v>281442807</v>
       </c>
       <c r="K57" s="17">
-        <v>281442807</v>
+        <v>244012164</v>
       </c>
       <c r="L57" s="17">
-        <v>244012164</v>
+        <v>250246584</v>
       </c>
       <c r="M57" s="17">
-        <v>250246584</v>
+        <v>278032479</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -2573,34 +2574,34 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>177684598</v>
+        <v>194972301</v>
       </c>
       <c r="E58" s="19">
-        <v>194972301</v>
+        <v>253955385</v>
       </c>
       <c r="F58" s="19">
-        <v>253955385</v>
+        <v>300498408</v>
       </c>
       <c r="G58" s="19">
-        <v>300498408</v>
+        <v>327160879</v>
       </c>
       <c r="H58" s="19">
-        <v>327160879</v>
+        <v>364442289</v>
       </c>
       <c r="I58" s="19">
-        <v>364442289</v>
+        <v>403709488</v>
       </c>
       <c r="J58" s="19">
-        <v>403709488</v>
+        <v>454539952</v>
       </c>
       <c r="K58" s="19">
-        <v>454539952</v>
+        <v>519803968</v>
       </c>
       <c r="L58" s="19">
-        <v>519803968</v>
+        <v>510840241</v>
       </c>
       <c r="M58" s="19">
-        <v>510840241</v>
+        <v>586580371</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
